--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_29.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_29.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Naoto Matsumoto</t>
+          <t>Haruka Yamamoto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
